--- a/Pack4U TODO List.xlsx
+++ b/Pack4U TODO List.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:11_{76386ECF-45B7-449A-8CE3-D094061ED01D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA415F7-18BC-43E1-8E8F-0B8D58ED23AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
   <si>
     <t>Pack4U</t>
   </si>
@@ -85,9 +85,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">באחריות כל מתכנת לבצע את משימת כתיבת הפונקצייה שלו ובכלל זה את פונקציות העזר התמוכות כולל כתיבת קבצים אם קיים צורך, הליך התכנות אמנם פרוצדרולי אבל יש ללבצע את המשימות בצורה מודולרית ומבוקרת, על מנת למנוע תקלות בזמן הקוריאלציה, יש לעדכן את חברי הקבוצה בזמן הוספות הפרוצדורות לקוד הכללי של התכנית,                                                                                     כתיבת הערות בזמן קומיטים היא חובה    </t>
-  </si>
-  <si>
     <r>
       <rPr>
         <b/>
@@ -293,13 +290,66 @@
       </rPr>
       <t xml:space="preserve"> הוספת משתמש</t>
     </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">באחריות כל מתכנת לבצע את משימת כתיבת הפונקצייה שלו ובכלל זה את פונקציות העזר התמוכות כולל כתיבת קבצים אם קיים צורך, הליך התכנות אמנם פרוצדרולי אבל יש ללבצע את המשימות בצורה מודולרית ומבוקרת, על מנת למנוע תקלות בזמן הקוריאלציה, יש לעדכן את חברי הקבוצה בזמן הוספות הפרוצדורות לקוד הכללי של התכנית,                                                                         </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1" tint="0.14996795556505021"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">כתיבת הערות בזמן קומיטים היא חובה </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1" tint="0.14996795556505021"/>
+        <rFont val="Trebuchet MS"/>
+        <family val="2"/>
+        <scheme val="major"/>
+      </rPr>
+      <t xml:space="preserve">   </t>
+    </r>
+  </si>
+  <si>
+    <t>בטיפול</t>
+  </si>
+  <si>
+    <t>אדנה</t>
+  </si>
+  <si>
+    <t>תומר</t>
+  </si>
+  <si>
+    <t>Column1</t>
+  </si>
+  <si>
+    <t>Column2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">אליס </t>
+  </si>
+  <si>
+    <t>קורל</t>
+  </si>
+  <si>
+    <t>סלבה</t>
+  </si>
+  <si>
+    <t>ולד</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -359,6 +409,20 @@
       <name val="Trebuchet MS"/>
       <family val="2"/>
       <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1" tint="0.14996795556505021"/>
+      <name val="Trebuchet MS"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Verdana"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -420,7 +484,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="14" fontId="5" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
@@ -429,10 +493,13 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="6" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -543,12 +610,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B4:D18" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
-  <autoFilter ref="B4:D18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
-  <tableColumns count="3">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Data" displayName="Data" ref="B4:F18" totalsRowShown="0" headerRowCellStyle="Normal" dataCellStyle="Normal">
+  <autoFilter ref="B4:F18" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Function Missons" dataCellStyle="Normal"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="worker" dataCellStyle="Normal"/>
     <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Date" dataCellStyle="Date"/>
+    <tableColumn id="7" xr3:uid="{A859450E-CDE0-43E7-A147-50EE9F061693}" name="Column1" dataCellStyle="Normal"/>
+    <tableColumn id="8" xr3:uid="{8A408803-0E75-47E2-849F-0277DB34AB2B}" name="Column2" dataCellStyle="Normal"/>
   </tableColumns>
   <tableStyleInfo name="Business plan checklist with SWOT analysis" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -766,10 +835,10 @@
     <tabColor theme="4"/>
     <pageSetUpPr autoPageBreaks="0" fitToPage="1"/>
   </sheetPr>
-  <dimension ref="B1:D18"/>
+  <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
@@ -781,28 +850,28 @@
     <col min="5" max="5" width="2.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:4" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
+    <row r="1" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
       <c r="B1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="2"/>
       <c r="D1" s="2"/>
     </row>
-    <row r="2" spans="2:4" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="2" spans="2:9" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="1"/>
       <c r="D2" s="1"/>
     </row>
-    <row r="3" spans="2:4" ht="60.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="4"/>
-      <c r="D3" s="4"/>
-    </row>
-    <row r="4" spans="2:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="60.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+    </row>
+    <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>3</v>
       </c>
@@ -812,86 +881,221 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B5" s="5" t="s">
+      <c r="E4" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="G4" s="6"/>
+      <c r="H4" s="6"/>
+      <c r="I4" s="6"/>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="3"/>
-    </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" s="3">
+        <v>44170</v>
+      </c>
+      <c r="E5" s="6"/>
+      <c r="F5" s="6"/>
+      <c r="G5" s="6"/>
+      <c r="H5" s="6"/>
+      <c r="I5" s="6"/>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
-      <c r="D6" s="3"/>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="6"/>
+      <c r="F6" s="6"/>
+      <c r="G6" s="6"/>
+      <c r="H6" s="6"/>
+      <c r="I6" s="6"/>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="6"/>
+      <c r="F7" s="6"/>
+      <c r="G7" s="6"/>
+      <c r="H7" s="6"/>
+      <c r="I7" s="6"/>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="3"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="C8" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="6"/>
+      <c r="F8" s="6"/>
+      <c r="G8" s="6"/>
+      <c r="H8" s="6"/>
+      <c r="I8" s="6"/>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>9</v>
       </c>
-      <c r="D8" s="3"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="6"/>
+      <c r="F9" s="6"/>
+      <c r="G9" s="6"/>
+      <c r="H9" s="6"/>
+      <c r="I9" s="6"/>
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>10</v>
       </c>
-      <c r="D9" s="3"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="6"/>
+      <c r="I10" s="6"/>
+    </row>
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>11</v>
       </c>
-      <c r="D10" s="3"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="6"/>
+      <c r="F11" s="6"/>
+      <c r="G11" s="6"/>
+      <c r="H11" s="6"/>
+      <c r="I11" s="6"/>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
         <v>12</v>
       </c>
-      <c r="D11" s="3"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="6"/>
+      <c r="H12" s="6"/>
+      <c r="I12" s="6"/>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>13</v>
       </c>
-      <c r="D12" s="3"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="6"/>
+      <c r="F13" s="6"/>
+      <c r="G13" s="6"/>
+      <c r="H13" s="6"/>
+      <c r="I13" s="6"/>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="3"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
+      <c r="C14" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E14" s="6"/>
+      <c r="F14" s="6"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="6"/>
+      <c r="I14" s="6"/>
+    </row>
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B15" t="s">
         <v>15</v>
       </c>
-      <c r="D14" s="3"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>16</v>
-      </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="C15" t="s">
+        <v>23</v>
+      </c>
+      <c r="D15" s="3">
+        <v>44170</v>
+      </c>
+      <c r="E15" s="6"/>
+      <c r="F15" s="6"/>
+      <c r="G15" s="6"/>
+      <c r="H15" s="6"/>
+      <c r="I15" s="6"/>
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E16" s="6"/>
+      <c r="F16" s="6"/>
+      <c r="G16" s="6"/>
+      <c r="H16" s="6"/>
+      <c r="I16" s="6"/>
+    </row>
+    <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
+      <c r="E17" s="6"/>
+      <c r="F17" s="6"/>
+      <c r="G17" s="6"/>
+      <c r="H17" s="6"/>
+      <c r="I17" s="6"/>
+    </row>
+    <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
+      <c r="E18" s="6"/>
+      <c r="F18" s="6"/>
+      <c r="G18" s="6"/>
+      <c r="H18" s="6"/>
+      <c r="I18" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B3:D3"/>
   </mergeCells>
+  <phoneticPr fontId="9" type="noConversion"/>
   <dataValidations xWindow="437" yWindow="424" count="6">
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Create a formal business plan checklist using Strength, Weakness, Opportunity, and Threat (SWOT) analysis framework in this worksheet" sqref="A1" xr:uid="{00000000-0002-0000-0000-000000000000}"/>
     <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" prompt="Enter Company Name in this cell" sqref="B1" xr:uid="{00000000-0002-0000-0000-000001000000}"/>
@@ -913,15 +1117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -1132,6 +1327,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1141,14 +1345,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6904169-268B-4960-9E8D-D4828F884FA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1167,6 +1363,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F11BC7-DB4A-4746-A576-6183A3F3BD7E}">
   <ds:schemaRefs>

--- a/Pack4U TODO List.xlsx
+++ b/Pack4U TODO List.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr filterPrivacy="1" codeName="ThisWorkbook"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CAA415F7-18BC-43E1-8E8F-0B8D58ED23AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="15" documentId="13_ncr:1_{CAA415F7-18BC-43E1-8E8F-0B8D58ED23AE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{5D5E17ED-C2B5-4D45-B90A-263663A33606}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="492" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="CHECKLIST" sheetId="1" r:id="rId1"/>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="26">
   <si>
     <t>Pack4U</t>
   </si>
@@ -318,9 +318,6 @@
     </r>
   </si>
   <si>
-    <t>בטיפול</t>
-  </si>
-  <si>
     <t>אדנה</t>
   </si>
   <si>
@@ -343,6 +340,9 @@
   </si>
   <si>
     <t>ולד</t>
+  </si>
+  <si>
+    <t>31/11/2020</t>
   </si>
 </sst>
 </file>
@@ -496,21 +496,21 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="2">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="7">
     <cellStyle name="Date" xfId="6" xr:uid="{00000000-0005-0000-0000-000000000000}"/>
-    <cellStyle name="Heading 1" xfId="1" builtinId="16" customBuiltin="1"/>
-    <cellStyle name="Heading 2" xfId="2" builtinId="17" customBuiltin="1"/>
-    <cellStyle name="Heading 3" xfId="3" builtinId="18" customBuiltin="1"/>
-    <cellStyle name="Heading 4" xfId="4" builtinId="19" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="1"/>
-    <cellStyle name="Title" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת" xfId="5" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="כותרת 1" xfId="1" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="כותרת 2" xfId="2" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="כותרת 3" xfId="3" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="כותרת 4" xfId="4" builtinId="19" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="7">
     <dxf>
@@ -837,17 +837,17 @@
   </sheetPr>
   <dimension ref="B1:I18"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.7265625" customWidth="1"/>
     <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="18.78515625" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" customWidth="1"/>
-    <col min="5" max="5" width="2.7109375" customWidth="1"/>
+    <col min="3" max="3" width="18.81640625" customWidth="1"/>
+    <col min="4" max="4" width="16.26953125" customWidth="1"/>
+    <col min="5" max="5" width="2.7265625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="45" customHeight="1" thickBot="1" x14ac:dyDescent="0.6">
@@ -865,11 +865,11 @@
       <c r="D2" s="1"/>
     </row>
     <row r="3" spans="2:9" ht="60.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="5"/>
-      <c r="D3" s="5"/>
+      <c r="C3" s="6"/>
+      <c r="D3" s="6"/>
     </row>
     <row r="4" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -881,215 +881,215 @@
       <c r="D4" t="s">
         <v>2</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="F4" s="6" t="s">
-        <v>21</v>
-      </c>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="3">
         <v>44170</v>
       </c>
-      <c r="E5" s="6"/>
-      <c r="F5" s="6"/>
-      <c r="G5" s="6"/>
-      <c r="H5" s="6"/>
-      <c r="I5" s="6"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
     </row>
     <row r="6" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>6</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
-      </c>
-      <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="E6" s="6"/>
-      <c r="F6" s="6"/>
-      <c r="G6" s="6"/>
-      <c r="H6" s="6"/>
-      <c r="I6" s="6"/>
+      <c r="D6" s="3">
+        <v>44174</v>
+      </c>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
     </row>
     <row r="7" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
         <v>7</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D7" s="3">
+        <v>44172</v>
+      </c>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
     </row>
     <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
         <v>8</v>
       </c>
       <c r="C8" t="s">
-        <v>19</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="6"/>
-      <c r="F8" s="6"/>
-      <c r="G8" s="6"/>
-      <c r="H8" s="6"/>
-      <c r="I8" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D8" s="3">
+        <v>44172</v>
+      </c>
+      <c r="E8" s="5"/>
+      <c r="F8" s="5"/>
+      <c r="G8" s="5"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="5"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B9" t="s">
         <v>9</v>
       </c>
       <c r="C9" t="s">
-        <v>19</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E9" s="6"/>
-      <c r="F9" s="6"/>
-      <c r="G9" s="6"/>
-      <c r="H9" s="6"/>
-      <c r="I9" s="6"/>
+        <v>18</v>
+      </c>
+      <c r="D9" s="3">
+        <v>44168</v>
+      </c>
+      <c r="E9" s="5"/>
+      <c r="F9" s="5"/>
+      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="5"/>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" t="s">
         <v>10</v>
       </c>
       <c r="C10" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E10" s="6"/>
-      <c r="F10" s="6"/>
-      <c r="G10" s="6"/>
-      <c r="H10" s="6"/>
-      <c r="I10" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D10" s="3">
+        <v>44171</v>
+      </c>
+      <c r="E10" s="5"/>
+      <c r="F10" s="5"/>
+      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="5"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" t="s">
         <v>11</v>
       </c>
       <c r="C11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E11" s="6"/>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="6"/>
-      <c r="I11" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D11" s="3">
+        <v>44170</v>
+      </c>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
+      <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="5"/>
     </row>
     <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" t="s">
         <v>12</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-      <c r="I12" s="6"/>
+        <v>23</v>
+      </c>
+      <c r="D12" s="3">
+        <v>44170</v>
+      </c>
+      <c r="E12" s="5"/>
+      <c r="F12" s="5"/>
+      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="5"/>
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>13</v>
       </c>
       <c r="C13" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-      <c r="I13" s="6"/>
+        <v>22</v>
+      </c>
+      <c r="D13" s="3">
+        <v>44172</v>
+      </c>
+      <c r="E13" s="5"/>
+      <c r="F13" s="5"/>
+      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="5"/>
     </row>
     <row r="14" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B14" t="s">
         <v>14</v>
       </c>
       <c r="C14" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
-      <c r="I14" s="6"/>
+        <v>21</v>
+      </c>
+      <c r="D14" s="3">
+        <v>44172</v>
+      </c>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="5"/>
     </row>
     <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" t="s">
         <v>15</v>
       </c>
       <c r="C15" t="s">
-        <v>23</v>
-      </c>
-      <c r="D15" s="3">
-        <v>44170</v>
-      </c>
-      <c r="E15" s="6"/>
-      <c r="F15" s="6"/>
-      <c r="G15" s="6"/>
-      <c r="H15" s="6"/>
-      <c r="I15" s="6"/>
+        <v>24</v>
+      </c>
+      <c r="D15" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="5"/>
+      <c r="F15" s="5"/>
+      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="5"/>
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="D16" s="3"/>
-      <c r="E16" s="6"/>
-      <c r="F16" s="6"/>
-      <c r="G16" s="6"/>
-      <c r="H16" s="6"/>
-      <c r="I16" s="6"/>
+      <c r="E16" s="5"/>
+      <c r="F16" s="5"/>
+      <c r="G16" s="5"/>
+      <c r="H16" s="5"/>
+      <c r="I16" s="5"/>
     </row>
     <row r="17" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D17" s="3"/>
-      <c r="E17" s="6"/>
-      <c r="F17" s="6"/>
-      <c r="G17" s="6"/>
-      <c r="H17" s="6"/>
-      <c r="I17" s="6"/>
+      <c r="E17" s="5"/>
+      <c r="F17" s="5"/>
+      <c r="G17" s="5"/>
+      <c r="H17" s="5"/>
+      <c r="I17" s="5"/>
     </row>
     <row r="18" spans="4:9" x14ac:dyDescent="0.25">
       <c r="D18" s="3"/>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="6"/>
-      <c r="I18" s="6"/>
+      <c r="E18" s="5"/>
+      <c r="F18" s="5"/>
+      <c r="G18" s="5"/>
+      <c r="H18" s="5"/>
+      <c r="I18" s="5"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -1117,6 +1117,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -1327,15 +1336,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1345,6 +1345,14 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6904169-268B-4960-9E8D-D4828F884FA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1363,14 +1371,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F11BC7-DB4A-4746-A576-6183A3F3BD7E}">
   <ds:schemaRefs>

--- a/Pack4U TODO List.xlsx
+++ b/Pack4U TODO List.xlsx
@@ -1117,15 +1117,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010079F111ED35F8CC479449609E8A0923A6" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="9677210f24a1be23c92c90fd886aa0aa">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5" xmlns:ns3="16c05727-aa75-4e4a-9b5f-8a80a1165891" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="60e05723c5c1908df1a1a4ebf11d344e" ns2:_="" ns3:_="">
     <xsd:import namespace="71af3243-3dd4-4a8d-8c0d-dd76da1f02a5"/>
@@ -1336,6 +1327,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
@@ -1345,14 +1345,6 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F6904169-268B-4960-9E8D-D4828F884FA7}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1371,6 +1363,14 @@
 </ds:datastoreItem>
 </file>
 
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D084DB53-E6C2-45A3-8A59-DD764E7DAAF7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
 <file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{34F11BC7-DB4A-4746-A576-6183A3F3BD7E}">
   <ds:schemaRefs>
